--- a/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.634643547140286</v>
+        <v>5.145211690949225</v>
       </c>
       <c r="C2">
-        <v>0.7312406554669906</v>
+        <v>0.8235974857362294</v>
       </c>
       <c r="D2">
-        <v>0.1812770055151844</v>
+        <v>0.06567845830740993</v>
       </c>
       <c r="E2">
-        <v>0.1069095721362956</v>
+        <v>0.01896590770007389</v>
       </c>
       <c r="F2">
-        <v>6.553507488924936</v>
+        <v>2.764571881640762</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,36 +445,42 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.172695357854856</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2760397937167127</v>
+        <v>0.3734867061411649</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.156053143665872</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.109491504158882</v>
+        <v>4.453778413106704</v>
       </c>
       <c r="C3">
-        <v>0.6233635660336461</v>
+        <v>0.7082988367019425</v>
       </c>
       <c r="D3">
-        <v>0.1596129940248687</v>
+        <v>0.06501374429891627</v>
       </c>
       <c r="E3">
-        <v>0.09216040461892305</v>
+        <v>0.01905636987729853</v>
       </c>
       <c r="F3">
-        <v>5.731588882151613</v>
+        <v>2.473230172984472</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,36 +492,42 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1499377155676243</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2358616676212648</v>
+        <v>0.3265291396794225</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.183336138579165</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.796663271858279</v>
+        <v>4.038822015242317</v>
       </c>
       <c r="C4">
-        <v>0.5590839231963116</v>
+        <v>0.6387903498716696</v>
       </c>
       <c r="D4">
-        <v>0.1467533914779153</v>
+        <v>0.06478974606718424</v>
       </c>
       <c r="E4">
-        <v>0.08339956307906604</v>
+        <v>0.01912973710266686</v>
       </c>
       <c r="F4">
-        <v>5.243019153286923</v>
+        <v>2.301382800956617</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -521,36 +539,42 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1364172691096961</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2119592367242902</v>
+        <v>0.2984496815723787</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.202312651220112</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.671223392651086</v>
+        <v>3.871801563718748</v>
       </c>
       <c r="C5">
-        <v>0.5332967840466551</v>
+        <v>0.610733092190344</v>
       </c>
       <c r="D5">
-        <v>0.1416054507389219</v>
+        <v>0.06474052147718368</v>
       </c>
       <c r="E5">
-        <v>0.07989253413736108</v>
+        <v>0.0191639262857044</v>
       </c>
       <c r="F5">
-        <v>5.047347301836226</v>
+        <v>2.232918447246817</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -562,36 +586,42 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1310039900480646</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2023811071187183</v>
+        <v>0.2871723003653983</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.210565139757776</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.650507279002682</v>
+        <v>3.844184330890982</v>
       </c>
       <c r="C6">
-        <v>0.5290371838686667</v>
+        <v>0.6060888877604782</v>
       </c>
       <c r="D6">
-        <v>0.1407557192543862</v>
+        <v>0.0647347725703824</v>
       </c>
       <c r="E6">
-        <v>0.07931370555096962</v>
+        <v>0.0191698573897745</v>
       </c>
       <c r="F6">
-        <v>5.015046225087389</v>
+        <v>2.221638907721214</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -603,36 +633,42 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1301104730577087</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.200799649129749</v>
+        <v>0.2853090215046166</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.211965738326001</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.794963749615135</v>
+        <v>4.03656152230991</v>
       </c>
       <c r="C7">
-        <v>0.5587346034427298</v>
+        <v>0.6384109434931702</v>
       </c>
       <c r="D7">
-        <v>0.1466836132777161</v>
+        <v>0.06478891719302027</v>
       </c>
       <c r="E7">
-        <v>0.08335202433677225</v>
+        <v>0.01913018105051734</v>
       </c>
       <c r="F7">
-        <v>5.240367155547517</v>
+        <v>2.300453386435791</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -644,36 +680,42 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1363438948475846</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2118294431004344</v>
+        <v>0.2982969519020457</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.202421893971774</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.451331058180187</v>
+        <v>4.904604255395725</v>
       </c>
       <c r="C8">
-        <v>0.6935835136269475</v>
+        <v>0.7835406075112417</v>
       </c>
       <c r="D8">
-        <v>0.1737034103201438</v>
+        <v>0.06540833613959052</v>
       </c>
       <c r="E8">
-        <v>0.1017556048737198</v>
+        <v>0.01899327854692778</v>
       </c>
       <c r="F8">
-        <v>6.266369763582389</v>
+        <v>2.662526485057782</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -685,36 +727,42 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1647432945157661</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2620074208433891</v>
+        <v>0.3571242511883241</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.164973173371493</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.835020662092404</v>
+        <v>6.700016629034792</v>
       </c>
       <c r="C9">
-        <v>0.9781230835672829</v>
+        <v>1.081187128226645</v>
       </c>
       <c r="D9">
-        <v>0.2311961864196093</v>
+        <v>0.06830456857179712</v>
       </c>
       <c r="E9">
-        <v>0.140782356951167</v>
+        <v>0.01887608719359246</v>
       </c>
       <c r="F9">
-        <v>8.439132674280671</v>
+        <v>3.438908565633284</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -726,36 +774,42 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2249575643535877</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3681319695570195</v>
+        <v>0.4796905311433903</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.111240206421044</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.945142108045843</v>
+        <v>8.10365270956936</v>
       </c>
       <c r="C10">
-        <v>1.207314424683176</v>
+        <v>1.312461380258924</v>
       </c>
       <c r="D10">
-        <v>0.2778861321666</v>
+        <v>0.0718198075962917</v>
       </c>
       <c r="E10">
-        <v>0.1722614898190287</v>
+        <v>0.01889834690439418</v>
       </c>
       <c r="F10">
-        <v>10.18974906005434</v>
+        <v>4.066801179259926</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -767,36 +821,42 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2735386095492061</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4536212473335866</v>
+        <v>0.5761283599721168</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.087100889316787</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.480705680186418</v>
+        <v>8.768099460645658</v>
       </c>
       <c r="C11">
-        <v>1.318305453742255</v>
+        <v>1.421678091311151</v>
       </c>
       <c r="D11">
-        <v>0.3005937923926467</v>
+        <v>0.07382099040182766</v>
       </c>
       <c r="E11">
-        <v>0.1874901381184344</v>
+        <v>0.01893647008457044</v>
       </c>
       <c r="F11">
-        <v>11.03613327946238</v>
+        <v>4.369560656393702</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -808,36 +868,42 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2970471377209805</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4949765551341869</v>
+        <v>0.6219283676977057</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.080359995503159</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.689027376134902</v>
+        <v>9.024199150481877</v>
       </c>
       <c r="C12">
-        <v>1.361563234002062</v>
+        <v>1.463741412703314</v>
       </c>
       <c r="D12">
-        <v>0.3094586004387168</v>
+        <v>0.07464704463404104</v>
       </c>
       <c r="E12">
-        <v>0.1934201605898807</v>
+        <v>0.01895539333641505</v>
       </c>
       <c r="F12">
-        <v>11.36562728857552</v>
+        <v>4.487140740472341</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -849,36 +915,42 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3062025948510509</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5110826928537264</v>
+        <v>0.6396037754758623</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.078510267714506</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.643895316632779</v>
+        <v>8.968830315009541</v>
       </c>
       <c r="C13">
-        <v>1.352187400256696</v>
+        <v>1.454648645357167</v>
       </c>
       <c r="D13">
-        <v>0.3075365548816649</v>
+        <v>0.07446591547547143</v>
       </c>
       <c r="E13">
-        <v>0.192135154060324</v>
+        <v>0.01895111002161887</v>
       </c>
       <c r="F13">
-        <v>11.29423172185483</v>
+        <v>4.4616790056848</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -890,36 +962,42 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3042185917743723</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5075924141669788</v>
+        <v>0.6357813265483543</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.078875709834747</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.497726452164784</v>
+        <v>8.789074147725614</v>
       </c>
       <c r="C14">
-        <v>1.321837954013347</v>
+        <v>1.425123707316061</v>
       </c>
       <c r="D14">
-        <v>0.3013174125262452</v>
+        <v>0.07388751551606276</v>
       </c>
       <c r="E14">
-        <v>0.1879745163141067</v>
+        <v>0.01893793403152433</v>
       </c>
       <c r="F14">
-        <v>11.06304896034294</v>
+        <v>4.379172300551005</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -931,36 +1009,42 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2977949502138273</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4962920762914109</v>
+        <v>0.6233755355142847</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.080193135444603</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.408950165718124</v>
+        <v>8.679577656982929</v>
       </c>
       <c r="C15">
-        <v>1.303416824972373</v>
+        <v>1.407134911583626</v>
       </c>
       <c r="D15">
-        <v>0.297544499476075</v>
+        <v>0.07354246113310126</v>
       </c>
       <c r="E15">
-        <v>0.185448374490889</v>
+        <v>0.01893046286010591</v>
       </c>
       <c r="F15">
-        <v>10.92267401451153</v>
+        <v>4.329031686490055</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -972,36 +1056,42 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.293894991049207</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4894314504623765</v>
+        <v>0.6158216367256841</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.081094689792636</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.910846374413779</v>
+        <v>8.060813229314817</v>
       </c>
       <c r="C16">
-        <v>1.20021708723516</v>
+        <v>1.305414973874235</v>
       </c>
       <c r="D16">
-        <v>0.2764360588900701</v>
+        <v>0.07169796353567648</v>
       </c>
       <c r="E16">
-        <v>0.1712871546861621</v>
+        <v>0.01889645629174019</v>
       </c>
       <c r="F16">
-        <v>10.13558602560815</v>
+        <v>4.047398008383112</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1013,36 +1103,42 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2720346784459124</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4509754882632322</v>
+        <v>0.5731784977145793</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.087634336452084</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.613818353349529</v>
+        <v>7.688361955894834</v>
       </c>
       <c r="C17">
-        <v>1.138796530415334</v>
+        <v>1.244124504249157</v>
       </c>
       <c r="D17">
-        <v>0.263897704379275</v>
+        <v>0.07067622658061623</v>
       </c>
       <c r="E17">
-        <v>0.1628532418784872</v>
+        <v>0.01888306679619944</v>
       </c>
       <c r="F17">
-        <v>9.666690833944813</v>
+        <v>3.879320253774495</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1054,36 +1150,42 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2590172892120961</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4280736665749316</v>
+        <v>0.5475484848122107</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.092793455172952</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.445771682148973</v>
+        <v>7.476525568859188</v>
       </c>
       <c r="C18">
-        <v>1.104083739778332</v>
+        <v>1.209240249045649</v>
       </c>
       <c r="D18">
-        <v>0.256820217131235</v>
+        <v>0.07012566796124275</v>
       </c>
       <c r="E18">
-        <v>0.1580854550028477</v>
+        <v>0.01887796861363444</v>
       </c>
       <c r="F18">
-        <v>9.401573851892408</v>
+        <v>3.784226146278911</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1095,36 +1197,42 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2516589812157477</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4151266531869098</v>
+        <v>0.5329846817339075</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.096153497374729</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.389324357751889</v>
+        <v>7.405190443457002</v>
       </c>
       <c r="C19">
-        <v>1.092429266965922</v>
+        <v>1.197488753226366</v>
       </c>
       <c r="D19">
-        <v>0.2544454983950573</v>
+        <v>0.06994534676257302</v>
       </c>
       <c r="E19">
-        <v>0.1564845808243547</v>
+        <v>0.01887667686435091</v>
       </c>
       <c r="F19">
-        <v>9.312548380827934</v>
+        <v>3.752287262037981</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1136,36 +1244,42 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2491883793862328</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4107793227525178</v>
+        <v>0.5280826736719604</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.097356012670588</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.645140869329396</v>
+        <v>7.727757820548277</v>
       </c>
       <c r="C20">
-        <v>1.145269559108073</v>
+        <v>1.250609990788632</v>
       </c>
       <c r="D20">
-        <v>0.2652181852910616</v>
+        <v>0.07078108140219541</v>
       </c>
       <c r="E20">
-        <v>0.1637422265957724</v>
+        <v>0.01888421965364095</v>
       </c>
       <c r="F20">
-        <v>9.716119969923852</v>
+        <v>3.897045781253041</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1177,36 +1291,42 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2603893380270748</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4304876756069902</v>
+        <v>0.5502580666127983</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.092202997517759</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.540499746150033</v>
+        <v>8.84174434955969</v>
       </c>
       <c r="C21">
-        <v>1.330716583265939</v>
+        <v>1.433775609648649</v>
       </c>
       <c r="D21">
-        <v>0.3031364024409129</v>
+        <v>0.07405546002996033</v>
       </c>
       <c r="E21">
-        <v>0.1891918645395592</v>
+        <v>0.0189416782519114</v>
       </c>
       <c r="F21">
-        <v>11.13069250685942</v>
+        <v>4.403322800877106</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1218,36 +1338,42 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2996743873625149</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4995983171425848</v>
+        <v>0.6270099267238578</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.079786271507174</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.158563764562928</v>
+        <v>9.596416557277507</v>
       </c>
       <c r="C22">
-        <v>1.459249162428705</v>
+        <v>1.557674210025425</v>
       </c>
       <c r="D22">
-        <v>0.3295045707121886</v>
+        <v>0.07659968383487836</v>
       </c>
       <c r="E22">
-        <v>0.2067979740677472</v>
+        <v>0.01900566600193176</v>
       </c>
       <c r="F22">
-        <v>12.10876745761516</v>
+        <v>4.751574292179612</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1259,36 +1385,42 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3268594674032457</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5474254233574456</v>
+        <v>0.6791391468004804</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.075824648175768</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.825231185995221</v>
+        <v>9.190909943019165</v>
       </c>
       <c r="C23">
-        <v>1.389872908571647</v>
+        <v>1.491114792182429</v>
       </c>
       <c r="D23">
-        <v>0.3152642241236094</v>
+        <v>0.07520079089516685</v>
       </c>
       <c r="E23">
-        <v>0.1972991275426494</v>
+        <v>0.01896891905117482</v>
       </c>
       <c r="F23">
-        <v>11.58113053739783</v>
+        <v>4.563938638111154</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1300,36 +1432,42 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3121917831874725</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5216191733346065</v>
+        <v>0.6511161704474802</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.077523550403129</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.630971572312717</v>
+        <v>7.709939870299024</v>
       </c>
       <c r="C24">
-        <v>1.142341256671727</v>
+        <v>1.247676813900682</v>
       </c>
       <c r="D24">
-        <v>0.2646207918396897</v>
+        <v>0.07073356251367358</v>
       </c>
       <c r="E24">
-        <v>0.1633400667108873</v>
+        <v>0.01888369038274895</v>
       </c>
       <c r="F24">
-        <v>9.693759303819434</v>
+        <v>3.889027320142389</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1341,36 +1479,42 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2597686473089098</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4293956248350028</v>
+        <v>0.5490325353011656</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.092468723047119</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.447188284361175</v>
+        <v>6.201713395581578</v>
       </c>
       <c r="C25">
-        <v>0.8982774742323159</v>
+        <v>0.9988319667844507</v>
       </c>
       <c r="D25">
-        <v>0.2150043742346526</v>
+        <v>0.06730714825135209</v>
       </c>
       <c r="E25">
-        <v>0.129817074340604</v>
+        <v>0.01889008235447687</v>
       </c>
       <c r="F25">
-        <v>7.828964750181171</v>
+        <v>3.220164286775088</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2080384885377669</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3383385722231154</v>
+        <v>0.4455729338475294</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.123353736406187</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.145211690949225</v>
+        <v>4.41738395684331</v>
       </c>
       <c r="C2">
-        <v>0.8235974857362294</v>
+        <v>1.879492628435287</v>
       </c>
       <c r="D2">
-        <v>0.06567845830740993</v>
+        <v>0.01477443718036398</v>
       </c>
       <c r="E2">
-        <v>0.01896590770007389</v>
+        <v>1.49631300949153</v>
       </c>
       <c r="F2">
-        <v>2.764571881640762</v>
+        <v>2.094272068126415</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8364637234534413</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3734867061411649</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.156053143665872</v>
+        <v>0.4631294545099394</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.453778413106704</v>
+        <v>3.795988648380899</v>
       </c>
       <c r="C3">
-        <v>0.7082988367019425</v>
+        <v>1.610712836497953</v>
       </c>
       <c r="D3">
-        <v>0.06501374429891627</v>
+        <v>0.01412274801977276</v>
       </c>
       <c r="E3">
-        <v>0.01905636987729853</v>
+        <v>1.272039294440191</v>
       </c>
       <c r="F3">
-        <v>2.473230172984472</v>
+        <v>1.823928079507183</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.7455226647765016</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3265291396794225</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.183336138579165</v>
+        <v>0.5084800860243917</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.038822015242317</v>
+        <v>3.421683809923707</v>
       </c>
       <c r="C4">
-        <v>0.6387903498716696</v>
+        <v>1.449419207805306</v>
       </c>
       <c r="D4">
-        <v>0.06478974606718424</v>
+        <v>0.01388141281148947</v>
       </c>
       <c r="E4">
-        <v>0.01912973710266686</v>
+        <v>1.139026430524453</v>
       </c>
       <c r="F4">
-        <v>2.301382800956617</v>
+        <v>1.664673466798604</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.69288424274486</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2984496815723787</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.202312651220112</v>
+        <v>0.5380261288578261</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.871801563718748</v>
+        <v>3.270663032415655</v>
       </c>
       <c r="C5">
-        <v>0.610733092190344</v>
+        <v>1.384470553418794</v>
       </c>
       <c r="D5">
-        <v>0.06474052147718368</v>
+        <v>0.01381769665428934</v>
       </c>
       <c r="E5">
-        <v>0.0191639262857044</v>
+        <v>1.085798420844938</v>
       </c>
       <c r="F5">
-        <v>2.232918447246817</v>
+        <v>1.601242043763676</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6721385433983329</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2871723003653983</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.210565139757776</v>
+        <v>0.5504632661883981</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.844184330890982</v>
+        <v>3.245669122381287</v>
       </c>
       <c r="C6">
-        <v>0.6060888877604782</v>
+        <v>1.373728658420134</v>
       </c>
       <c r="D6">
-        <v>0.0647347725703824</v>
+        <v>0.01380906693647788</v>
       </c>
       <c r="E6">
-        <v>0.0191698573897745</v>
+        <v>1.077013445350502</v>
       </c>
       <c r="F6">
-        <v>2.221638907721214</v>
+        <v>1.590791686505142</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6687336125262249</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2853090215046166</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.211965738326001</v>
+        <v>0.5525515836607369</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.03656152230991</v>
+        <v>3.419641351391817</v>
       </c>
       <c r="C7">
-        <v>0.6384109434931702</v>
+        <v>1.448540327794205</v>
       </c>
       <c r="D7">
-        <v>0.06478891719302027</v>
+        <v>0.01388041977400079</v>
       </c>
       <c r="E7">
-        <v>0.01913018105051734</v>
+        <v>1.138304877395271</v>
       </c>
       <c r="F7">
-        <v>2.300453386435791</v>
+        <v>1.663812354321564</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6926017282862063</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2982969519020457</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.202421893971774</v>
+        <v>0.5381922914570616</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.904604255395725</v>
+        <v>4.201428058517706</v>
       </c>
       <c r="C8">
-        <v>0.7835406075112417</v>
+        <v>1.785938557778024</v>
       </c>
       <c r="D8">
-        <v>0.06540833613959052</v>
+        <v>0.01451333810029354</v>
       </c>
       <c r="E8">
-        <v>0.01899327854692778</v>
+        <v>1.417877381015074</v>
       </c>
       <c r="F8">
-        <v>2.662526485057782</v>
+        <v>1.999512855749515</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.8043792412342938</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3571242511883241</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.164973173371493</v>
+        <v>0.4783937106510443</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.700016629034792</v>
+        <v>5.808126414425374</v>
       </c>
       <c r="C9">
-        <v>1.081187128226645</v>
+        <v>2.485718847995827</v>
       </c>
       <c r="D9">
-        <v>0.06830456857179712</v>
+        <v>0.01730136807783822</v>
       </c>
       <c r="E9">
-        <v>0.01887608719359246</v>
+        <v>2.014393196122839</v>
       </c>
       <c r="F9">
-        <v>3.438908565633284</v>
+        <v>2.723277225507303</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.054203518685767</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4796905311433903</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.111240206421044</v>
+        <v>0.3762317027079334</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.10365270956936</v>
+        <v>7.060639951364919</v>
       </c>
       <c r="C10">
-        <v>1.312461380258924</v>
+        <v>3.037414912429995</v>
       </c>
       <c r="D10">
-        <v>0.0718198075962917</v>
+        <v>0.02079044300156596</v>
       </c>
       <c r="E10">
-        <v>0.01889834690439418</v>
+        <v>2.501278336240503</v>
       </c>
       <c r="F10">
-        <v>4.066801179259926</v>
+        <v>3.31502079775882</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.265193338426414</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5761283599721168</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.087100889316787</v>
+        <v>0.3130665793633369</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.768099460645658</v>
+        <v>7.653881943103784</v>
       </c>
       <c r="C11">
-        <v>1.421678091311151</v>
+        <v>3.300693979501148</v>
       </c>
       <c r="D11">
-        <v>0.07382099040182766</v>
+        <v>0.022840376174738</v>
       </c>
       <c r="E11">
-        <v>0.01893647008457044</v>
+        <v>2.739125069439922</v>
       </c>
       <c r="F11">
-        <v>4.369560656393702</v>
+        <v>3.603006109277743</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.36965188622365</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6219283676977057</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.080359995503159</v>
+        <v>0.2876838599423905</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.024199150481877</v>
+        <v>7.882733531335532</v>
       </c>
       <c r="C12">
-        <v>1.463741412703314</v>
+        <v>3.402607073923491</v>
       </c>
       <c r="D12">
-        <v>0.07464704463404104</v>
+        <v>0.02369989611894496</v>
       </c>
       <c r="E12">
-        <v>0.01895539333641505</v>
+        <v>2.832192262767023</v>
       </c>
       <c r="F12">
-        <v>4.487140740472341</v>
+        <v>3.715377750069138</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.410695886053276</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6396037754758623</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.078510267714506</v>
+        <v>0.2786366691918261</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.968830315009541</v>
+        <v>7.833243996120586</v>
       </c>
       <c r="C13">
-        <v>1.454648645357167</v>
+        <v>3.380551511498595</v>
       </c>
       <c r="D13">
-        <v>0.07446591547547143</v>
+        <v>0.0235107654646427</v>
       </c>
       <c r="E13">
-        <v>0.01895111002161887</v>
+        <v>2.812002924462135</v>
       </c>
       <c r="F13">
-        <v>4.4616790056848</v>
+        <v>3.691017608253304</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.401785200892959</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6357813265483543</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.078875709834747</v>
+        <v>0.2805585049178205</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.789074147725614</v>
+        <v>7.672620015774896</v>
       </c>
       <c r="C14">
-        <v>1.425123707316061</v>
+        <v>3.309031109815351</v>
       </c>
       <c r="D14">
-        <v>0.07388751551606276</v>
+        <v>0.02290930908172584</v>
       </c>
       <c r="E14">
-        <v>0.01893793403152433</v>
+        <v>2.746717301233531</v>
       </c>
       <c r="F14">
-        <v>4.379172300551005</v>
+        <v>3.612180466398371</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.37299702112972</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6233755355142847</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.080193135444603</v>
+        <v>0.2869276829153762</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.679577656982929</v>
+        <v>7.574808496928483</v>
       </c>
       <c r="C15">
-        <v>1.407134911583626</v>
+        <v>3.265526264126095</v>
       </c>
       <c r="D15">
-        <v>0.07354246113310126</v>
+        <v>0.02255231369926136</v>
       </c>
       <c r="E15">
-        <v>0.01893046286010591</v>
+        <v>2.707140839581342</v>
       </c>
       <c r="F15">
-        <v>4.329031686490055</v>
+        <v>3.564343177885604</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.35556621452946</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6158216367256841</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.081094689792636</v>
+        <v>0.2909053054538404</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.060813229314817</v>
+        <v>7.022409130554024</v>
       </c>
       <c r="C16">
-        <v>1.305414973874235</v>
+        <v>3.020492438420945</v>
       </c>
       <c r="D16">
-        <v>0.07169796353567648</v>
+        <v>0.02066711857395376</v>
       </c>
       <c r="E16">
-        <v>0.01889645629174019</v>
+        <v>2.486115209478797</v>
       </c>
       <c r="F16">
-        <v>4.047398008383112</v>
+        <v>3.296628006511384</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.258558946271037</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5731784977145793</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.087634336452084</v>
+        <v>0.3147995026564203</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.688361955894834</v>
+        <v>6.690074722736142</v>
       </c>
       <c r="C17">
-        <v>1.244124504249157</v>
+        <v>2.873610654818947</v>
       </c>
       <c r="D17">
-        <v>0.07067622658061623</v>
+        <v>0.01963973060779622</v>
       </c>
       <c r="E17">
-        <v>0.01888306679619944</v>
+        <v>2.355122914123172</v>
       </c>
       <c r="F17">
-        <v>3.879320253774495</v>
+        <v>3.137604072041228</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.201392672364562</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5475484848122107</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.092793455172952</v>
+        <v>0.3303695715508823</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.476525568859188</v>
+        <v>6.5010746138272</v>
       </c>
       <c r="C18">
-        <v>1.209240249045649</v>
+        <v>2.790254994602037</v>
       </c>
       <c r="D18">
-        <v>0.07012566796124275</v>
+        <v>0.01909114456856997</v>
       </c>
       <c r="E18">
-        <v>0.01887796861363444</v>
+        <v>2.281272369502034</v>
       </c>
       <c r="F18">
-        <v>3.784226146278911</v>
+        <v>3.047863341462545</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.169291035286321</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5329846817339075</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.096153497374729</v>
+        <v>0.3396346317924497</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.405190443457002</v>
+        <v>6.437429306871422</v>
       </c>
       <c r="C19">
-        <v>1.197488753226366</v>
+        <v>2.762213790877752</v>
       </c>
       <c r="D19">
-        <v>0.06994534676257302</v>
+        <v>0.01891223284254551</v>
       </c>
       <c r="E19">
-        <v>0.01887667686435091</v>
+        <v>2.256507165234098</v>
       </c>
       <c r="F19">
-        <v>3.752287262037981</v>
+        <v>3.017758477882126</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.15854850466549</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5280826736719604</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.097356012670588</v>
+        <v>0.3428225561285316</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.727757820548277</v>
+        <v>6.725224362624317</v>
       </c>
       <c r="C20">
-        <v>1.250609990788632</v>
+        <v>2.889126945643625</v>
       </c>
       <c r="D20">
-        <v>0.07078108140219541</v>
+        <v>0.01974460820314761</v>
       </c>
       <c r="E20">
-        <v>0.01888421965364095</v>
+        <v>2.368908618963957</v>
       </c>
       <c r="F20">
-        <v>3.897045781253041</v>
+        <v>3.154349824642708</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.207395750300051</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5502580666127983</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.092202997517759</v>
+        <v>0.3286795300023755</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.84174434955969</v>
+        <v>7.719677518516619</v>
       </c>
       <c r="C21">
-        <v>1.433775609648649</v>
+        <v>3.32997419400931</v>
       </c>
       <c r="D21">
-        <v>0.07405546002996033</v>
+        <v>0.02308355633466164</v>
       </c>
       <c r="E21">
-        <v>0.0189416782519114</v>
+        <v>2.765805814711598</v>
       </c>
       <c r="F21">
-        <v>4.403322800877106</v>
+        <v>3.635241190738782</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.381409976744422</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6270099267238578</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.079786271507174</v>
+        <v>0.2850408211454081</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.596416557277507</v>
+        <v>8.394648816563461</v>
       </c>
       <c r="C22">
-        <v>1.557674210025425</v>
+        <v>3.631294682551982</v>
       </c>
       <c r="D22">
-        <v>0.07659968383487836</v>
+        <v>0.02576234184930115</v>
       </c>
       <c r="E22">
-        <v>0.01900566600193176</v>
+        <v>3.043127989565249</v>
       </c>
       <c r="F22">
-        <v>4.751574292179612</v>
+        <v>3.969268064224735</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.503984222551537</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6791391468004804</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.075824648175768</v>
+        <v>0.2598651992991705</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.190909943019165</v>
+        <v>8.031785501676268</v>
       </c>
       <c r="C23">
-        <v>1.491114792182429</v>
+        <v>3.469089716532949</v>
       </c>
       <c r="D23">
-        <v>0.07520079089516685</v>
+        <v>0.02428040950909249</v>
       </c>
       <c r="E23">
-        <v>0.01896891905117482</v>
+        <v>2.89321202166326</v>
       </c>
       <c r="F23">
-        <v>4.563938638111154</v>
+        <v>3.788942996706254</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.437648548815133</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6511161704474802</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.077523550403129</v>
+        <v>0.2729632391786581</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.709939870299024</v>
+        <v>6.709326843455301</v>
       </c>
       <c r="C24">
-        <v>1.247676813900682</v>
+        <v>2.882108671830281</v>
       </c>
       <c r="D24">
-        <v>0.07073356251367358</v>
+        <v>0.01969706319318121</v>
       </c>
       <c r="E24">
-        <v>0.01888369038274895</v>
+        <v>2.362671604732398</v>
       </c>
       <c r="F24">
-        <v>3.889027320142389</v>
+        <v>3.146773868285749</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.204679398455426</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5490325353011656</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.092468723047119</v>
+        <v>0.3294426269185777</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.201713395581578</v>
+        <v>5.363072340421809</v>
       </c>
       <c r="C25">
-        <v>0.9988319667844507</v>
+        <v>2.291005843558139</v>
       </c>
       <c r="D25">
-        <v>0.06730714825135209</v>
+        <v>0.01633640069224995</v>
       </c>
       <c r="E25">
-        <v>0.01889008235447687</v>
+        <v>1.846111455660449</v>
       </c>
       <c r="F25">
-        <v>3.220164286775088</v>
+        <v>2.518612197933976</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.9825283241367657</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4455729338475294</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.123353736406187</v>
+        <v>0.4020038869162548</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.41738395684331</v>
+        <v>1.43180100408847</v>
       </c>
       <c r="C2">
-        <v>1.879492628435287</v>
+        <v>0.5561946450787332</v>
       </c>
       <c r="D2">
-        <v>0.01477443718036398</v>
+        <v>0.01898470219389026</v>
       </c>
       <c r="E2">
-        <v>1.49631300949153</v>
+        <v>0.418868025178611</v>
       </c>
       <c r="F2">
-        <v>2.094272068126415</v>
+        <v>1.22420842577543</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.8364637234534413</v>
+        <v>0.6851918156816694</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4631294545099394</v>
+        <v>0.9873592261007289</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.795988648380899</v>
+        <v>1.270843218843311</v>
       </c>
       <c r="C3">
-        <v>1.610712836497953</v>
+        <v>0.4868603933235249</v>
       </c>
       <c r="D3">
-        <v>0.01412274801977276</v>
+        <v>0.01914739503100904</v>
       </c>
       <c r="E3">
-        <v>1.272039294440191</v>
+        <v>0.3649584804624908</v>
       </c>
       <c r="F3">
-        <v>1.823928079507183</v>
+        <v>1.168444706594499</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.7455226647765016</v>
+        <v>0.6700495542047094</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5084800860243917</v>
+        <v>1.003888397040395</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.421683809923707</v>
+        <v>1.172501167612211</v>
       </c>
       <c r="C4">
-        <v>1.449419207805306</v>
+        <v>0.4444327630589555</v>
       </c>
       <c r="D4">
-        <v>0.01388141281148947</v>
+        <v>0.01926975491615224</v>
       </c>
       <c r="E4">
-        <v>1.139026430524453</v>
+        <v>0.3320111203335046</v>
       </c>
       <c r="F4">
-        <v>1.664673466798604</v>
+        <v>1.135248235746545</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.69288424274486</v>
+        <v>0.6613475268064306</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5380261288578261</v>
+        <v>1.014555381492585</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.270663032415655</v>
+        <v>1.132544577260489</v>
       </c>
       <c r="C5">
-        <v>1.384470553418794</v>
+        <v>0.4271769619589918</v>
       </c>
       <c r="D5">
-        <v>0.01381769665428934</v>
+        <v>0.0193251675234194</v>
       </c>
       <c r="E5">
-        <v>1.085798420844938</v>
+        <v>0.3186199087233206</v>
       </c>
       <c r="F5">
-        <v>1.601242043763676</v>
+        <v>1.121978765897921</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.6721385433983329</v>
+        <v>0.6579493326846304</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5504632661883981</v>
+        <v>1.01903186804314</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.245669122381287</v>
+        <v>1.125916869622642</v>
       </c>
       <c r="C6">
-        <v>1.373728658420134</v>
+        <v>0.4243136222090698</v>
       </c>
       <c r="D6">
-        <v>0.01380906693647788</v>
+        <v>0.01933470107326229</v>
       </c>
       <c r="E6">
-        <v>1.077013445350502</v>
+        <v>0.3163983286809184</v>
       </c>
       <c r="F6">
-        <v>1.590791686505142</v>
+        <v>1.119790873934249</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.6687336125262249</v>
+        <v>0.6573939500089239</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5525515836607369</v>
+        <v>1.019782994033985</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.419641351391817</v>
+        <v>1.171961823827075</v>
       </c>
       <c r="C7">
-        <v>1.448540327794205</v>
+        <v>0.4441999115416593</v>
       </c>
       <c r="D7">
-        <v>0.01388041977400079</v>
+        <v>0.01927047988786512</v>
       </c>
       <c r="E7">
-        <v>1.138304877395271</v>
+        <v>0.331830384154614</v>
       </c>
       <c r="F7">
-        <v>1.663812354321564</v>
+        <v>1.135068237959004</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.6926017282862063</v>
+        <v>0.661301100826023</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5381922914570616</v>
+        <v>1.014615229045823</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.201428058517706</v>
+        <v>1.376199399961763</v>
       </c>
       <c r="C8">
-        <v>1.785938557778024</v>
+        <v>0.5322568711487179</v>
       </c>
       <c r="D8">
-        <v>0.01451333810029354</v>
+        <v>0.01903607571363963</v>
       </c>
       <c r="E8">
-        <v>1.417877381015074</v>
+        <v>0.4002460886429873</v>
       </c>
       <c r="F8">
-        <v>1.999512855749515</v>
+        <v>1.204762350224854</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.8043792412342938</v>
+        <v>0.6798461201412564</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4783937106510443</v>
+        <v>0.9929505784159041</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.808126414425374</v>
+        <v>1.780764153406892</v>
       </c>
       <c r="C9">
-        <v>2.485718847995827</v>
+        <v>0.7061947151043455</v>
       </c>
       <c r="D9">
-        <v>0.01730136807783822</v>
+        <v>0.01875920105149831</v>
       </c>
       <c r="E9">
-        <v>2.014393196122839</v>
+        <v>0.535788821193421</v>
       </c>
       <c r="F9">
-        <v>2.723277225507303</v>
+        <v>1.349887909244501</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.054203518685767</v>
+        <v>0.7210197532924383</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3762317027079334</v>
+        <v>0.9546052659177207</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.060639951364919</v>
+        <v>2.08077230338705</v>
       </c>
       <c r="C10">
-        <v>3.037414912429995</v>
+        <v>0.8349296160035919</v>
       </c>
       <c r="D10">
-        <v>0.02079044300156596</v>
+        <v>0.01867358378142114</v>
       </c>
       <c r="E10">
-        <v>2.501278336240503</v>
+        <v>0.636450542645548</v>
       </c>
       <c r="F10">
-        <v>3.31502079775882</v>
+        <v>1.461933247349464</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.265193338426414</v>
+        <v>0.7543200522087972</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3130665793633369</v>
+        <v>0.9289952987538861</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.653881943103784</v>
+        <v>2.217924869523586</v>
       </c>
       <c r="C11">
-        <v>3.300693979501148</v>
+        <v>0.8937386091240569</v>
       </c>
       <c r="D11">
-        <v>0.022840376174738</v>
+        <v>0.01866162578351194</v>
       </c>
       <c r="E11">
-        <v>2.739125069439922</v>
+        <v>0.6825312684266436</v>
       </c>
       <c r="F11">
-        <v>3.603006109277743</v>
+        <v>1.514142216851695</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.36965188622365</v>
+        <v>0.7701580401969039</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2876838599423905</v>
+        <v>0.9179096619487979</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.882733531335532</v>
+        <v>2.269963472863196</v>
       </c>
       <c r="C12">
-        <v>3.402607073923491</v>
+        <v>0.9160465645317117</v>
       </c>
       <c r="D12">
-        <v>0.02369989611894496</v>
+        <v>0.0186610976509769</v>
       </c>
       <c r="E12">
-        <v>2.832192262767023</v>
+        <v>0.7000266628881207</v>
       </c>
       <c r="F12">
-        <v>3.715377750069138</v>
+        <v>1.534095255452371</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.410695886053276</v>
+        <v>0.7762567557253419</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2786366691918261</v>
+        <v>0.9137937574140693</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.833243996120586</v>
+        <v>2.2587514234379</v>
       </c>
       <c r="C13">
-        <v>3.380551511498595</v>
+        <v>0.9112404005356325</v>
       </c>
       <c r="D13">
-        <v>0.0235107654646427</v>
+        <v>0.0186610315642568</v>
       </c>
       <c r="E13">
-        <v>2.812002924462135</v>
+        <v>0.6962566223281641</v>
       </c>
       <c r="F13">
-        <v>3.691017608253304</v>
+        <v>1.529789816759688</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.401785200892959</v>
+        <v>0.7749387535038181</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2805585049178205</v>
+        <v>0.9146765315895671</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.672620015774896</v>
+        <v>2.2222040482431</v>
       </c>
       <c r="C14">
-        <v>3.309031109815351</v>
+        <v>0.8955731150404063</v>
       </c>
       <c r="D14">
-        <v>0.02290930908172584</v>
+        <v>0.01866150147474244</v>
       </c>
       <c r="E14">
-        <v>2.746717301233531</v>
+        <v>0.6839696872497427</v>
       </c>
       <c r="F14">
-        <v>3.612180466398371</v>
+        <v>1.515780079165381</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.37299702112972</v>
+        <v>0.7706577447913077</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2869276829153762</v>
+        <v>0.9175693961619196</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.574808496928483</v>
+        <v>2.199831132061433</v>
       </c>
       <c r="C15">
-        <v>3.265526264126095</v>
+        <v>0.8859815169456056</v>
       </c>
       <c r="D15">
-        <v>0.02255231369926136</v>
+        <v>0.01866231381580974</v>
       </c>
       <c r="E15">
-        <v>2.707140839581342</v>
+        <v>0.6764496476126993</v>
       </c>
       <c r="F15">
-        <v>3.564343177885604</v>
+        <v>1.507222628932141</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.35556621452946</v>
+        <v>0.7680487461037444</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2909053054538404</v>
+        <v>0.9193520606761254</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.022409130554024</v>
+        <v>2.071823072738027</v>
       </c>
       <c r="C16">
-        <v>3.020492438420945</v>
+        <v>0.8310915125155702</v>
       </c>
       <c r="D16">
-        <v>0.02066711857395376</v>
+        <v>0.01867491848107505</v>
       </c>
       <c r="E16">
-        <v>2.486115209478797</v>
+        <v>0.633445221417773</v>
       </c>
       <c r="F16">
-        <v>3.296628006511384</v>
+        <v>1.458546580191637</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.258558946271037</v>
+        <v>0.7532990526687229</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3147995026564203</v>
+        <v>0.929731199063383</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.690074722736142</v>
+        <v>1.993470925925237</v>
       </c>
       <c r="C17">
-        <v>2.873610654818947</v>
+        <v>0.7974834466871812</v>
       </c>
       <c r="D17">
-        <v>0.01963973060779622</v>
+        <v>0.01868964761732528</v>
       </c>
       <c r="E17">
-        <v>2.355122914123172</v>
+        <v>0.6071403153444521</v>
       </c>
       <c r="F17">
-        <v>3.137604072041228</v>
+        <v>1.429005889067014</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.201392672364562</v>
+        <v>0.7444286503622948</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3303695715508823</v>
+        <v>0.9362436128909799</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.5010746138272</v>
+        <v>1.948468322837186</v>
       </c>
       <c r="C18">
-        <v>2.790254994602037</v>
+        <v>0.7781760405782165</v>
       </c>
       <c r="D18">
-        <v>0.01909114456856997</v>
+        <v>0.01870065255525333</v>
       </c>
       <c r="E18">
-        <v>2.281272369502034</v>
+        <v>0.592037403652057</v>
       </c>
       <c r="F18">
-        <v>3.047863341462545</v>
+        <v>1.412131211511991</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.169291035286321</v>
+        <v>0.7393914045231753</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3396346317924497</v>
+        <v>0.9400424614798908</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.437429306871422</v>
+        <v>1.933241982149468</v>
       </c>
       <c r="C19">
-        <v>2.762213790877752</v>
+        <v>0.7716427625505276</v>
       </c>
       <c r="D19">
-        <v>0.01891223284254551</v>
+        <v>0.01870481012150549</v>
       </c>
       <c r="E19">
-        <v>2.256507165234098</v>
+        <v>0.5869283286249072</v>
       </c>
       <c r="F19">
-        <v>3.017758477882126</v>
+        <v>1.40643758340525</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.15854850466549</v>
+        <v>0.737696942551608</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3428225561285316</v>
+        <v>0.9413377783360701</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.725224362624317</v>
+        <v>2.001805043607987</v>
       </c>
       <c r="C20">
-        <v>2.889126945643625</v>
+        <v>0.8010586757072247</v>
       </c>
       <c r="D20">
-        <v>0.01974460820314761</v>
+        <v>0.0186878166532054</v>
       </c>
       <c r="E20">
-        <v>2.368908618963957</v>
+        <v>0.6099376967771946</v>
       </c>
       <c r="F20">
-        <v>3.154349824642708</v>
+        <v>1.432138472512435</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.207395750300051</v>
+        <v>0.7453662010517519</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3286795300023755</v>
+        <v>0.935544855845535</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.719677518516619</v>
+        <v>2.232936096178037</v>
       </c>
       <c r="C21">
-        <v>3.32997419400931</v>
+        <v>0.9001739156577742</v>
       </c>
       <c r="D21">
-        <v>0.02308355633466164</v>
+        <v>0.01866125392796647</v>
       </c>
       <c r="E21">
-        <v>2.765805814711598</v>
+        <v>0.6875773871021522</v>
       </c>
       <c r="F21">
-        <v>3.635241190738782</v>
+        <v>1.519890085992898</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.381409976744422</v>
+        <v>0.7719124173112704</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2850408211454081</v>
+        <v>0.9167174600614842</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.394648816563461</v>
+        <v>2.38458974426311</v>
       </c>
       <c r="C22">
-        <v>3.631294682551982</v>
+        <v>0.9651758285419874</v>
       </c>
       <c r="D22">
-        <v>0.02576234184930115</v>
+        <v>0.01866726640396266</v>
       </c>
       <c r="E22">
-        <v>3.043127989565249</v>
+        <v>0.7385872800035287</v>
       </c>
       <c r="F22">
-        <v>3.969268064224735</v>
+        <v>1.578307509139734</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.503984222551537</v>
+        <v>0.7898528354055259</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2598651992991705</v>
+        <v>0.9048909335181037</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.031785501676268</v>
+        <v>2.303593272698947</v>
       </c>
       <c r="C23">
-        <v>3.469089716532949</v>
+        <v>0.9304616225160771</v>
       </c>
       <c r="D23">
-        <v>0.02428040950909249</v>
+        <v>0.01866187882006187</v>
       </c>
       <c r="E23">
-        <v>2.89321202166326</v>
+        <v>0.7113364733707357</v>
       </c>
       <c r="F23">
-        <v>3.788942996706254</v>
+        <v>1.547029931490101</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.437648548815133</v>
+        <v>0.7802229355520041</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2729632391786581</v>
+        <v>0.9111589380551806</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.709326843455301</v>
+        <v>1.998037055126417</v>
       </c>
       <c r="C24">
-        <v>2.882108671830281</v>
+        <v>0.7994422702759607</v>
       </c>
       <c r="D24">
-        <v>0.01969706319318121</v>
+        <v>0.01868863653876218</v>
       </c>
       <c r="E24">
-        <v>2.362671604732398</v>
+        <v>0.6086729382376603</v>
       </c>
       <c r="F24">
-        <v>3.146773868285749</v>
+        <v>1.430721893424504</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.204679398455426</v>
+        <v>0.7449421399710729</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3294426269185777</v>
+        <v>0.9358605933551623</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.363072340421809</v>
+        <v>1.670853665900438</v>
       </c>
       <c r="C25">
-        <v>2.291005843558139</v>
+        <v>0.6589872455524528</v>
       </c>
       <c r="D25">
-        <v>0.01633640069224995</v>
+        <v>0.01881388412277829</v>
       </c>
       <c r="E25">
-        <v>1.846111455660449</v>
+        <v>0.4989489557592321</v>
       </c>
       <c r="F25">
-        <v>2.518612197933976</v>
+        <v>1.309695057901877</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.9825283241367657</v>
+        <v>0.7093543365496231</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4020038869162548</v>
+        <v>0.9645315964188583</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.43180100408847</v>
+        <v>4.417383956843253</v>
       </c>
       <c r="C2">
-        <v>0.5561946450787332</v>
+        <v>1.87949262843523</v>
       </c>
       <c r="D2">
-        <v>0.01898470219389026</v>
+        <v>0.01477443718025739</v>
       </c>
       <c r="E2">
-        <v>0.418868025178611</v>
+        <v>1.496313009491487</v>
       </c>
       <c r="F2">
-        <v>1.22420842577543</v>
+        <v>2.094272068126372</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.6851918156816694</v>
+        <v>0.8364637234534413</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9873592261007289</v>
+        <v>0.4631294545099465</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.270843218843311</v>
+        <v>3.795988648381126</v>
       </c>
       <c r="C3">
-        <v>0.4868603933235249</v>
+        <v>1.610712836498237</v>
       </c>
       <c r="D3">
-        <v>0.01914739503100904</v>
+        <v>0.01412274801998947</v>
       </c>
       <c r="E3">
-        <v>0.3649584804624908</v>
+        <v>1.272039294440191</v>
       </c>
       <c r="F3">
-        <v>1.168444706594499</v>
+        <v>1.823928079507183</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.6700495542047094</v>
+        <v>0.7455226647765016</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.003888397040395</v>
+        <v>0.5084800860244023</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.172501167612211</v>
+        <v>3.421683809923536</v>
       </c>
       <c r="C4">
-        <v>0.4444327630589555</v>
+        <v>1.449419207805136</v>
       </c>
       <c r="D4">
-        <v>0.01926975491615224</v>
+        <v>0.01388141281138999</v>
       </c>
       <c r="E4">
-        <v>0.3320111203335046</v>
+        <v>1.139026430524495</v>
       </c>
       <c r="F4">
-        <v>1.135248235746545</v>
+        <v>1.664673466798604</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.6613475268064306</v>
+        <v>0.6928842427448672</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.014555381492585</v>
+        <v>0.5380261288578083</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.132544577260489</v>
+        <v>3.270663032415825</v>
       </c>
       <c r="C5">
-        <v>0.4271769619589918</v>
+        <v>1.384470553418737</v>
       </c>
       <c r="D5">
-        <v>0.0193251675234194</v>
+        <v>0.0138176966541792</v>
       </c>
       <c r="E5">
-        <v>0.3186199087233206</v>
+        <v>1.085798420844952</v>
       </c>
       <c r="F5">
-        <v>1.121978765897921</v>
+        <v>1.601242043763691</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.6579493326846304</v>
+        <v>0.6721385433983329</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.01903186804314</v>
+        <v>0.5504632661884052</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.125916869622642</v>
+        <v>3.2456691223814</v>
       </c>
       <c r="C6">
-        <v>0.4243136222090698</v>
+        <v>1.373728658420021</v>
       </c>
       <c r="D6">
-        <v>0.01933470107326229</v>
+        <v>0.01380906693658801</v>
       </c>
       <c r="E6">
-        <v>0.3163983286809184</v>
+        <v>1.077013445350431</v>
       </c>
       <c r="F6">
-        <v>1.119790873934249</v>
+        <v>1.590791686505156</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.6573939500089239</v>
+        <v>0.6687336125262249</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.019782994033985</v>
+        <v>0.5525515836607475</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.171961823827075</v>
+        <v>3.419641351391874</v>
       </c>
       <c r="C7">
-        <v>0.4441999115416593</v>
+        <v>1.448540327794092</v>
       </c>
       <c r="D7">
-        <v>0.01927047988786512</v>
+        <v>0.01388041977399723</v>
       </c>
       <c r="E7">
-        <v>0.331830384154614</v>
+        <v>1.138304877395285</v>
       </c>
       <c r="F7">
-        <v>1.135068237959004</v>
+        <v>1.663812354321578</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.661301100826023</v>
+        <v>0.6926017282862205</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.014615229045823</v>
+        <v>0.538192291457122</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.376199399961763</v>
+        <v>4.201428058517763</v>
       </c>
       <c r="C8">
-        <v>0.5322568711487179</v>
+        <v>1.785938557778081</v>
       </c>
       <c r="D8">
-        <v>0.01903607571363963</v>
+        <v>0.01451333810028999</v>
       </c>
       <c r="E8">
-        <v>0.4002460886429873</v>
+        <v>1.417877381015032</v>
       </c>
       <c r="F8">
-        <v>1.204762350224854</v>
+        <v>1.999512855749515</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.6798461201412564</v>
+        <v>0.8043792412343009</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9929505784159041</v>
+        <v>0.4783937106510372</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.780764153406892</v>
+        <v>5.80812641442526</v>
       </c>
       <c r="C9">
-        <v>0.7061947151043455</v>
+        <v>2.485718847995827</v>
       </c>
       <c r="D9">
-        <v>0.01875920105149831</v>
+        <v>0.01730136807773164</v>
       </c>
       <c r="E9">
-        <v>0.535788821193421</v>
+        <v>2.014393196122782</v>
       </c>
       <c r="F9">
-        <v>1.349887909244501</v>
+        <v>2.723277225507303</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.7210197532924383</v>
+        <v>1.054203518685782</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9546052659177207</v>
+        <v>0.3762317027079334</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.08077230338705</v>
+        <v>7.060639951364749</v>
       </c>
       <c r="C10">
-        <v>0.8349296160035919</v>
+        <v>3.037414912429881</v>
       </c>
       <c r="D10">
-        <v>0.01867358378142114</v>
+        <v>0.02079044300144872</v>
       </c>
       <c r="E10">
-        <v>0.636450542645548</v>
+        <v>2.501278336240517</v>
       </c>
       <c r="F10">
-        <v>1.461933247349464</v>
+        <v>3.31502079775882</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.7543200522087972</v>
+        <v>1.265193338426428</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9289952987538861</v>
+        <v>0.3130665793633369</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.217924869523586</v>
+        <v>7.653881943103727</v>
       </c>
       <c r="C11">
-        <v>0.8937386091240569</v>
+        <v>3.300693979500977</v>
       </c>
       <c r="D11">
-        <v>0.01866162578351194</v>
+        <v>0.02284037617461721</v>
       </c>
       <c r="E11">
-        <v>0.6825312684266436</v>
+        <v>2.739125069439936</v>
       </c>
       <c r="F11">
-        <v>1.514142216851695</v>
+        <v>3.603006109277743</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.7701580401969039</v>
+        <v>1.36965188622365</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9179096619487979</v>
+        <v>0.2876838599424545</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.269963472863196</v>
+        <v>7.882733531335475</v>
       </c>
       <c r="C12">
-        <v>0.9160465645317117</v>
+        <v>3.402607073923434</v>
       </c>
       <c r="D12">
-        <v>0.0186610976509769</v>
+        <v>0.02369989611904444</v>
       </c>
       <c r="E12">
-        <v>0.7000266628881207</v>
+        <v>2.832192262767038</v>
       </c>
       <c r="F12">
-        <v>1.534095255452371</v>
+        <v>3.715377750069194</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>0.7762567557253419</v>
+        <v>1.410695886053304</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9137937574140693</v>
+        <v>0.2786366691918118</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.2587514234379</v>
+        <v>7.83324399612053</v>
       </c>
       <c r="C13">
-        <v>0.9112404005356325</v>
+        <v>3.380551511498595</v>
       </c>
       <c r="D13">
-        <v>0.0186610315642568</v>
+        <v>0.02351076546475639</v>
       </c>
       <c r="E13">
-        <v>0.6962566223281641</v>
+        <v>2.812002924462121</v>
       </c>
       <c r="F13">
-        <v>1.529789816759688</v>
+        <v>3.691017608253304</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.7749387535038181</v>
+        <v>1.401785200892974</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9146765315895671</v>
+        <v>0.2805585049178845</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.2222040482431</v>
+        <v>7.672620015774953</v>
       </c>
       <c r="C14">
-        <v>0.8955731150404063</v>
+        <v>3.309031109815749</v>
       </c>
       <c r="D14">
-        <v>0.01866150147474244</v>
+        <v>0.02290930908197097</v>
       </c>
       <c r="E14">
-        <v>0.6839696872497427</v>
+        <v>2.746717301233502</v>
       </c>
       <c r="F14">
-        <v>1.515780079165381</v>
+        <v>3.612180466398371</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.7706577447913077</v>
+        <v>1.37299702112972</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9175693961619196</v>
+        <v>0.2869276829153549</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.199831132061433</v>
+        <v>7.574808496928483</v>
       </c>
       <c r="C15">
-        <v>0.8859815169456056</v>
+        <v>3.26552626412564</v>
       </c>
       <c r="D15">
-        <v>0.01866231381580974</v>
+        <v>0.02255231369912281</v>
       </c>
       <c r="E15">
-        <v>0.6764496476126993</v>
+        <v>2.707140839581285</v>
       </c>
       <c r="F15">
-        <v>1.507222628932141</v>
+        <v>3.564343177885632</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.7680487461037444</v>
+        <v>1.35556621452946</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9193520606761254</v>
+        <v>0.290905305453883</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.071823072738027</v>
+        <v>7.02240913055391</v>
       </c>
       <c r="C16">
-        <v>0.8310915125155702</v>
+        <v>3.020492438420945</v>
       </c>
       <c r="D16">
-        <v>0.01867491848107505</v>
+        <v>0.02066711857395731</v>
       </c>
       <c r="E16">
-        <v>0.633445221417773</v>
+        <v>2.486115209478825</v>
       </c>
       <c r="F16">
-        <v>1.458546580191637</v>
+        <v>3.296628006511412</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.7532990526687229</v>
+        <v>1.258558946271052</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.929731199063383</v>
+        <v>0.3147995026564203</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.993470925925237</v>
+        <v>6.690074722736028</v>
       </c>
       <c r="C17">
-        <v>0.7974834466871812</v>
+        <v>2.873610654818833</v>
       </c>
       <c r="D17">
-        <v>0.01868964761732528</v>
+        <v>0.01963973060765767</v>
       </c>
       <c r="E17">
-        <v>0.6071403153444521</v>
+        <v>2.3551229141232</v>
       </c>
       <c r="F17">
-        <v>1.429005889067014</v>
+        <v>3.137604072041199</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.7444286503622948</v>
+        <v>1.201392672364577</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9362436128909799</v>
+        <v>0.3303695715508752</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.948468322837186</v>
+        <v>6.501074613827257</v>
       </c>
       <c r="C18">
-        <v>0.7781760405782165</v>
+        <v>2.790254994602492</v>
       </c>
       <c r="D18">
-        <v>0.01870065255525333</v>
+        <v>0.01909114456858418</v>
       </c>
       <c r="E18">
-        <v>0.592037403652057</v>
+        <v>2.281272369502076</v>
       </c>
       <c r="F18">
-        <v>1.412131211511991</v>
+        <v>3.047863341462545</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.7393914045231753</v>
+        <v>1.169291035286321</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9400424614798908</v>
+        <v>0.3396346317923999</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.933241982149468</v>
+        <v>6.437429306871536</v>
       </c>
       <c r="C19">
-        <v>0.7716427625505276</v>
+        <v>2.762213790877581</v>
       </c>
       <c r="D19">
-        <v>0.01870481012150549</v>
+        <v>0.01891223284239985</v>
       </c>
       <c r="E19">
-        <v>0.5869283286249072</v>
+        <v>2.256507165234098</v>
       </c>
       <c r="F19">
-        <v>1.40643758340525</v>
+        <v>3.017758477882126</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.737696942551608</v>
+        <v>1.158548504665504</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9413377783360701</v>
+        <v>0.3428225561285103</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.001805043607987</v>
+        <v>6.725224362624374</v>
       </c>
       <c r="C20">
-        <v>0.8010586757072247</v>
+        <v>2.889126945643625</v>
       </c>
       <c r="D20">
-        <v>0.0186878166532054</v>
+        <v>0.01974460820291313</v>
       </c>
       <c r="E20">
-        <v>0.6099376967771946</v>
+        <v>2.368908618963985</v>
       </c>
       <c r="F20">
-        <v>1.432138472512435</v>
+        <v>3.154349824642708</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.7453662010517519</v>
+        <v>1.207395750300066</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.935544855845535</v>
+        <v>0.3286795300023755</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.232936096178037</v>
+        <v>7.719677518516619</v>
       </c>
       <c r="C21">
-        <v>0.9001739156577742</v>
+        <v>3.32997419400931</v>
       </c>
       <c r="D21">
-        <v>0.01866125392796647</v>
+        <v>0.02308355633451953</v>
       </c>
       <c r="E21">
-        <v>0.6875773871021522</v>
+        <v>2.765805814711683</v>
       </c>
       <c r="F21">
-        <v>1.519890085992898</v>
+        <v>3.635241190738782</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.7719124173112704</v>
+        <v>1.381409976744422</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9167174600614842</v>
+        <v>0.285040821145401</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.38458974426311</v>
+        <v>8.394648816563404</v>
       </c>
       <c r="C22">
-        <v>0.9651758285419874</v>
+        <v>3.631294682551925</v>
       </c>
       <c r="D22">
-        <v>0.01866726640396266</v>
+        <v>0.02576234184941839</v>
       </c>
       <c r="E22">
-        <v>0.7385872800035287</v>
+        <v>3.043127989565264</v>
       </c>
       <c r="F22">
-        <v>1.578307509139734</v>
+        <v>3.969268064224707</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.7898528354055259</v>
+        <v>1.503984222551537</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9048909335181037</v>
+        <v>0.2598651992991918</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.303593272698947</v>
+        <v>8.031785501676382</v>
       </c>
       <c r="C23">
-        <v>0.9304616225160771</v>
+        <v>3.469089716533176</v>
       </c>
       <c r="D23">
-        <v>0.01866187882006187</v>
+        <v>0.02428040950908184</v>
       </c>
       <c r="E23">
-        <v>0.7113364733707357</v>
+        <v>2.893212021663373</v>
       </c>
       <c r="F23">
-        <v>1.547029931490101</v>
+        <v>3.788942996706254</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.7802229355520041</v>
+        <v>1.437648548815133</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9111589380551806</v>
+        <v>0.2729632391786438</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.998037055126417</v>
+        <v>6.709326843455528</v>
       </c>
       <c r="C24">
-        <v>0.7994422702759607</v>
+        <v>2.882108671830167</v>
       </c>
       <c r="D24">
-        <v>0.01868863653876218</v>
+        <v>0.01969706319317055</v>
       </c>
       <c r="E24">
-        <v>0.6086729382376603</v>
+        <v>2.362671604732427</v>
       </c>
       <c r="F24">
-        <v>1.430721893424504</v>
+        <v>3.146773868285806</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.7449421399710729</v>
+        <v>1.204679398455454</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9358605933551623</v>
+        <v>0.3294426269185635</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.670853665900438</v>
+        <v>5.363072340421922</v>
       </c>
       <c r="C25">
-        <v>0.6589872455524528</v>
+        <v>2.29100584355831</v>
       </c>
       <c r="D25">
-        <v>0.01881388412277829</v>
+        <v>0.01633640069202258</v>
       </c>
       <c r="E25">
-        <v>0.4989489557592321</v>
+        <v>1.846111455660463</v>
       </c>
       <c r="F25">
-        <v>1.309695057901877</v>
+        <v>2.518612197933948</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.7093543365496231</v>
+        <v>0.9825283241367373</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9645315964188583</v>
+        <v>0.4020038869163116</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.417383956843253</v>
+        <v>4.054828752122205</v>
       </c>
       <c r="C2">
-        <v>1.87949262843523</v>
+        <v>0.9526395741677902</v>
       </c>
       <c r="D2">
-        <v>0.01477443718025739</v>
+        <v>0.04605365633735659</v>
       </c>
       <c r="E2">
-        <v>1.496313009491487</v>
+        <v>0.03506215012187885</v>
       </c>
       <c r="F2">
-        <v>2.094272068126372</v>
+        <v>1.999014460769317</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>6.524400438490119E-05</v>
       </c>
       <c r="I2">
-        <v>0.8364637234534413</v>
+        <v>0.0004641713659938596</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.10068134798292</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4631294545099465</v>
+        <v>0.4103105920506778</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.9256084189658047</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.795988648381126</v>
+        <v>3.532141295403392</v>
       </c>
       <c r="C3">
-        <v>1.610712836498237</v>
+        <v>0.8233329882695273</v>
       </c>
       <c r="D3">
-        <v>0.01412274801998947</v>
+        <v>0.04537707319376416</v>
       </c>
       <c r="E3">
-        <v>1.272039294440191</v>
+        <v>0.03080870795416502</v>
       </c>
       <c r="F3">
-        <v>1.823928079507183</v>
+        <v>1.802872399281426</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.0007894477165244496</v>
+      </c>
+      <c r="I3">
+        <v>0.00114071961449369</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0.7455226647765016</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.019518951763466</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5084800860244023</v>
+        <v>0.3588595749271093</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.9533772540956029</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.421683809923536</v>
+        <v>3.211514655864391</v>
       </c>
       <c r="C4">
-        <v>1.449419207805136</v>
+        <v>0.744862525478112</v>
       </c>
       <c r="D4">
-        <v>0.01388141281138999</v>
+        <v>0.04492045315115689</v>
       </c>
       <c r="E4">
-        <v>1.139026430524495</v>
+        <v>0.02826807499747286</v>
       </c>
       <c r="F4">
-        <v>1.664673466798604</v>
+        <v>1.683653020622046</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.001661585065136917</v>
+      </c>
+      <c r="I4">
+        <v>0.002109012416811495</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0.6928842427448672</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9700150404304111</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5380261288578083</v>
+        <v>0.3274021727322491</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.9707258944489929</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.270663032415825</v>
+        <v>3.078405912150629</v>
       </c>
       <c r="C5">
-        <v>1.384470553418737</v>
+        <v>0.7134592766512924</v>
       </c>
       <c r="D5">
-        <v>0.0138176966541792</v>
+        <v>0.04466853066872645</v>
       </c>
       <c r="E5">
-        <v>1.085798420844952</v>
+        <v>0.02723559818072907</v>
       </c>
       <c r="F5">
-        <v>1.601242043763691</v>
+        <v>1.633422665919326</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.002121375142640547</v>
+      </c>
+      <c r="I5">
+        <v>0.002709965776196199</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0.6721385433983329</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9485307332354722</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5504632661884052</v>
+        <v>0.3146274033049679</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.9772373659968601</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.2456691223814</v>
+        <v>3.053276493058604</v>
       </c>
       <c r="C6">
-        <v>1.373728658420021</v>
+        <v>0.7087143926266322</v>
       </c>
       <c r="D6">
-        <v>0.01380906693658801</v>
+        <v>0.04455840546663659</v>
       </c>
       <c r="E6">
-        <v>1.077013445350431</v>
+        <v>0.02705075343490915</v>
       </c>
       <c r="F6">
-        <v>1.590791686505156</v>
+        <v>1.622761772833442</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.002208057699255805</v>
+      </c>
+      <c r="I6">
+        <v>0.002918039108945614</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0.6687336125262249</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9432834090500819</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5525515836607475</v>
+        <v>0.3125304670507347</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.9775587079969839</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.419641351391874</v>
+        <v>3.201415563948444</v>
       </c>
       <c r="C7">
-        <v>1.448540327794092</v>
+        <v>0.7456924482908107</v>
       </c>
       <c r="D7">
-        <v>0.01388041977399723</v>
+        <v>0.04473215367484151</v>
       </c>
       <c r="E7">
-        <v>1.138304877395285</v>
+        <v>0.0282149621714245</v>
       </c>
       <c r="F7">
-        <v>1.663812354321578</v>
+        <v>1.676582108559117</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.001677613111001452</v>
+      </c>
+      <c r="I7">
+        <v>0.002372110466541955</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0.6926017282862205</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.965117666612926</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.538192291457122</v>
+        <v>0.3272923383508726</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.9687399729930846</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.201428058517763</v>
+        <v>3.863358986990136</v>
       </c>
       <c r="C8">
-        <v>1.785938557778081</v>
+        <v>0.9095112012876712</v>
       </c>
       <c r="D8">
-        <v>0.01451333810028999</v>
+        <v>0.04558500275722999</v>
       </c>
       <c r="E8">
-        <v>1.417877381015032</v>
+        <v>0.03352501332431768</v>
       </c>
       <c r="F8">
-        <v>1.999512855749515</v>
+        <v>1.922582510714548</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.0002269328669459725</v>
+      </c>
+      <c r="I8">
+        <v>0.000867139711585807</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0.8043792412343009</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.066484799852525</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4783937106510372</v>
+        <v>0.392619006010392</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.932440359455871</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.80812641442526</v>
+        <v>5.181712217717688</v>
       </c>
       <c r="C9">
-        <v>2.485718847995827</v>
+        <v>1.237428525595021</v>
       </c>
       <c r="D9">
-        <v>0.01730136807773164</v>
+        <v>0.04725679054720189</v>
       </c>
       <c r="E9">
-        <v>2.014393196122782</v>
+        <v>0.04474007635904087</v>
       </c>
       <c r="F9">
-        <v>2.723277225507303</v>
+        <v>2.42830033515547</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.001095671215437521</v>
+      </c>
+      <c r="I9">
+        <v>0.002383160048214705</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>1.054203518685782</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.277032674935043</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3762317027079334</v>
+        <v>0.5220647553430098</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.8674979832507361</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.060639951364749</v>
+        <v>6.111196371050539</v>
       </c>
       <c r="C10">
-        <v>3.037414912429881</v>
+        <v>1.487440076518965</v>
       </c>
       <c r="D10">
-        <v>0.02079044300144872</v>
+        <v>0.0473027020536847</v>
       </c>
       <c r="E10">
-        <v>2.501278336240517</v>
+        <v>0.05290545144033598</v>
       </c>
       <c r="F10">
-        <v>3.31502079775882</v>
+        <v>2.773530406180242</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.004448357920316948</v>
+      </c>
+      <c r="I10">
+        <v>0.00704943378997136</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>1.265193338426428</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.410446971353309</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3130665793633369</v>
+        <v>0.5954897531423882</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.8121476932570104</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.653881943103727</v>
+        <v>6.154185222411343</v>
       </c>
       <c r="C11">
-        <v>3.300693979500977</v>
+        <v>1.610804615477718</v>
       </c>
       <c r="D11">
-        <v>0.02284037617461721</v>
+        <v>0.0406111615841791</v>
       </c>
       <c r="E11">
-        <v>2.739125069439936</v>
+        <v>0.0561105911918478</v>
       </c>
       <c r="F11">
-        <v>3.603006109277743</v>
+        <v>2.634822509340353</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02326570980591569</v>
+      </c>
+      <c r="I11">
+        <v>0.008960889252317195</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>1.36965188622365</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.275327565690731</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2876838599424545</v>
+        <v>0.4432574554414828</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7218216676142717</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.882733531335475</v>
+        <v>6.004156182205236</v>
       </c>
       <c r="C12">
-        <v>3.402607073923434</v>
+        <v>1.659719865494196</v>
       </c>
       <c r="D12">
-        <v>0.02369989611904444</v>
+        <v>0.03684416869300566</v>
       </c>
       <c r="E12">
-        <v>2.832192262767038</v>
+        <v>0.06499017974853061</v>
       </c>
       <c r="F12">
-        <v>3.715377750069194</v>
+        <v>2.457146933331018</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.0615929021083943</v>
       </c>
       <c r="I12">
-        <v>1.410695886053304</v>
+        <v>0.009012580130227654</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.145571019250951</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2786366691918118</v>
+        <v>0.3198561396850863</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.6754102058035212</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.83324399612053</v>
+        <v>5.684825879013374</v>
       </c>
       <c r="C13">
-        <v>3.380551511498595</v>
+        <v>1.655234938564092</v>
       </c>
       <c r="D13">
-        <v>0.02351076546475639</v>
+        <v>0.03480484627268421</v>
       </c>
       <c r="E13">
-        <v>2.812002924462121</v>
+        <v>0.07837572079942134</v>
       </c>
       <c r="F13">
-        <v>3.691017608253304</v>
+        <v>2.229569472340259</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1165029204680366</v>
+      </c>
+      <c r="I13">
+        <v>0.007898143370376864</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>1.401785200892974</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.005676064452523</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2805585049178845</v>
+        <v>0.2125492347716715</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.6560617984280479</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.672620015774953</v>
+        <v>5.384556608756384</v>
       </c>
       <c r="C14">
-        <v>3.309031109815749</v>
+        <v>1.628425478548934</v>
       </c>
       <c r="D14">
-        <v>0.02290930908197097</v>
+        <v>0.03435185871895463</v>
       </c>
       <c r="E14">
-        <v>2.746717301233502</v>
+        <v>0.09068145793667881</v>
       </c>
       <c r="F14">
-        <v>3.612180466398371</v>
+        <v>2.048131162260461</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.165121212208021</v>
+      </c>
+      <c r="I14">
+        <v>0.006768218052321195</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>1.37299702112972</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9037650323427684</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2869276829153549</v>
+        <v>0.1483230354226848</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.6563239039557676</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.574808496928483</v>
+        <v>5.273298130977764</v>
       </c>
       <c r="C15">
-        <v>3.26552626412564</v>
+        <v>1.611060493551236</v>
       </c>
       <c r="D15">
-        <v>0.02255231369912281</v>
+        <v>0.0344004231645787</v>
       </c>
       <c r="E15">
-        <v>2.707140839581285</v>
+        <v>0.09358306333591315</v>
       </c>
       <c r="F15">
-        <v>3.564343177885632</v>
+        <v>1.991269442137664</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1773305045239084</v>
+      </c>
+      <c r="I15">
+        <v>0.006384542219277201</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>1.35556621452946</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8749606005945481</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.290905305453883</v>
+        <v>0.1336276644930905</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.6600559901488179</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.02240913055391</v>
+        <v>4.94187021966178</v>
       </c>
       <c r="C16">
-        <v>3.020492438420945</v>
+        <v>1.503329335337753</v>
       </c>
       <c r="D16">
-        <v>0.02066711857395731</v>
+        <v>0.03476619586674001</v>
       </c>
       <c r="E16">
-        <v>2.486115209478825</v>
+        <v>0.08677087645742176</v>
       </c>
       <c r="F16">
-        <v>3.296628006511412</v>
+        <v>1.88954675698804</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1633440030615532</v>
+      </c>
+      <c r="I16">
+        <v>0.00460979982979115</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>1.258558946271052</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8465901893016721</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3147995026564203</v>
+        <v>0.1281147926314787</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.6849426502356017</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.690074722736028</v>
+        <v>4.845745589260105</v>
       </c>
       <c r="C17">
-        <v>2.873610654818833</v>
+        <v>1.435491621068877</v>
       </c>
       <c r="D17">
-        <v>0.01963973060765767</v>
+        <v>0.03512916000766531</v>
       </c>
       <c r="E17">
-        <v>2.3551229141232</v>
+        <v>0.07443724978916499</v>
       </c>
       <c r="F17">
-        <v>3.137604072041199</v>
+        <v>1.906732401209823</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1250219831912744</v>
+      </c>
+      <c r="I17">
+        <v>0.003905060048614573</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>1.201392672364577</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8777312588610897</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3303695715508752</v>
+        <v>0.1553714339862253</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.7029313395197496</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.501074613827257</v>
+        <v>4.946982251548036</v>
       </c>
       <c r="C18">
-        <v>2.790254994602492</v>
+        <v>1.392509365013268</v>
       </c>
       <c r="D18">
-        <v>0.01909114456858418</v>
+        <v>0.03635310119555069</v>
       </c>
       <c r="E18">
-        <v>2.281272369502076</v>
+        <v>0.05957937997525597</v>
       </c>
       <c r="F18">
-        <v>3.047863341462545</v>
+        <v>2.034629687419638</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07213544326525323</v>
+      </c>
+      <c r="I18">
+        <v>0.003565088247436066</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>1.169291035286321</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.969845825576698</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3396346317923999</v>
+        <v>0.2244541515934912</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.7247785655713184</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.437429306871536</v>
+        <v>5.186134679676115</v>
       </c>
       <c r="C19">
-        <v>2.762213790877581</v>
+        <v>1.375025163293117</v>
       </c>
       <c r="D19">
-        <v>0.01891223284239985</v>
+        <v>0.03926165666305437</v>
       </c>
       <c r="E19">
-        <v>2.256507165234098</v>
+        <v>0.04921219945040978</v>
       </c>
       <c r="F19">
-        <v>3.017758477882126</v>
+        <v>2.236307214246708</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02730823325357079</v>
+      </c>
+      <c r="I19">
+        <v>0.00402514204132931</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>1.158548504665504</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.102759631448819</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3428225561285103</v>
+        <v>0.338757657827415</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.7579662368369533</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.725224362624374</v>
+        <v>5.837706254073566</v>
       </c>
       <c r="C20">
-        <v>2.889126945643625</v>
+        <v>1.425149197744759</v>
       </c>
       <c r="D20">
-        <v>0.01974460820291313</v>
+        <v>0.04671455073899722</v>
       </c>
       <c r="E20">
-        <v>2.368908618963985</v>
+        <v>0.05052845288602437</v>
       </c>
       <c r="F20">
-        <v>3.154349824642708</v>
+        <v>2.660321298666162</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.00330869440895043</v>
+      </c>
+      <c r="I20">
+        <v>0.00620027891960806</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>1.207395750300066</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.359674645691626</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3286795300023755</v>
+        <v>0.5753339554225221</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.8203152865525212</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.719677518516619</v>
+        <v>6.62503684357506</v>
       </c>
       <c r="C21">
-        <v>3.32997419400931</v>
+        <v>1.618478181292403</v>
       </c>
       <c r="D21">
-        <v>0.02308355633451953</v>
+        <v>0.0481639038814663</v>
       </c>
       <c r="E21">
-        <v>2.765805814711683</v>
+        <v>0.0582795110792973</v>
       </c>
       <c r="F21">
-        <v>3.635241190738782</v>
+        <v>2.985505940024581</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.006952439866584503</v>
+      </c>
+      <c r="I21">
+        <v>0.01117169874511603</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>1.381409976744422</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.501048591987029</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.285040821145401</v>
+        <v>0.6680812636138285</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7934201677933359</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.394648816563404</v>
+        <v>7.132560471228373</v>
       </c>
       <c r="C22">
-        <v>3.631294682551925</v>
+        <v>1.745782012510233</v>
       </c>
       <c r="D22">
-        <v>0.02576234184941839</v>
+        <v>0.0488632308783572</v>
       </c>
       <c r="E22">
-        <v>3.043127989565264</v>
+        <v>0.06324184841351244</v>
       </c>
       <c r="F22">
-        <v>3.969268064224707</v>
+        <v>3.192674826685419</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.01001027976651425</v>
+      </c>
+      <c r="I22">
+        <v>0.01500513435429163</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>1.503984222551537</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.589331653452788</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2598651992991918</v>
+        <v>0.7173222899289442</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7743830408598029</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.031785501676382</v>
+        <v>6.87179811580063</v>
       </c>
       <c r="C23">
-        <v>3.469089716533176</v>
+        <v>1.676109043803933</v>
       </c>
       <c r="D23">
-        <v>0.02428040950908184</v>
+        <v>0.04870708034061266</v>
       </c>
       <c r="E23">
-        <v>2.893212021663373</v>
+        <v>0.06062708660532401</v>
       </c>
       <c r="F23">
-        <v>3.788942996706254</v>
+        <v>3.089585266219302</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.008336122759907472</v>
+      </c>
+      <c r="I23">
+        <v>0.01264279521553924</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>1.437648548815133</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.547669204671209</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2729632391786438</v>
+        <v>0.6909304831347356</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7866998150031392</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.709326843455528</v>
+        <v>5.873830740761036</v>
       </c>
       <c r="C24">
-        <v>2.882108671830167</v>
+        <v>1.419225873594257</v>
       </c>
       <c r="D24">
-        <v>0.01969706319317055</v>
+        <v>0.04770668699091374</v>
       </c>
       <c r="E24">
-        <v>2.362671604732427</v>
+        <v>0.05107909899919338</v>
       </c>
       <c r="F24">
-        <v>3.146773868285806</v>
+        <v>2.693304376224972</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.003312567930883414</v>
+      </c>
+      <c r="I24">
+        <v>0.005826531593323914</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>1.204679398455454</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.383449995342687</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3294426269185635</v>
+        <v>0.5920340129403314</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.8310146008524057</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.363072340421922</v>
+        <v>4.808585497623937</v>
       </c>
       <c r="C25">
-        <v>2.29100584355831</v>
+        <v>1.149817668099672</v>
       </c>
       <c r="D25">
-        <v>0.01633640069202258</v>
+        <v>0.04651031220500457</v>
       </c>
       <c r="E25">
-        <v>1.846111455660463</v>
+        <v>0.04152621317330496</v>
       </c>
       <c r="F25">
-        <v>2.518612197933948</v>
+        <v>2.278157984838998</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.0004057882620749353</v>
+      </c>
+      <c r="I25">
+        <v>0.00177149536314225</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0.9825283241367373</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.211144939925248</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4020038869163116</v>
+        <v>0.4869404464229063</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8812114584609816</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.054828752122205</v>
+        <v>3.635770537174778</v>
       </c>
       <c r="C2">
-        <v>0.9526395741677902</v>
+        <v>1.018639165552031</v>
       </c>
       <c r="D2">
-        <v>0.04605365633735659</v>
+        <v>0.03585269309493189</v>
       </c>
       <c r="E2">
-        <v>0.03506215012187885</v>
+        <v>0.03469004800880215</v>
       </c>
       <c r="F2">
-        <v>1.999014460769317</v>
+        <v>1.666683645421045</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.524400438490119E-05</v>
+        <v>9.131568930786926E-06</v>
       </c>
       <c r="I2">
-        <v>0.0004641713659938596</v>
+        <v>0.0005447750982217059</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>1.10068134798292</v>
+        <v>0.8562289844131783</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3792774824342047</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.271219774398908</v>
       </c>
       <c r="N2">
-        <v>0.4103105920506778</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9256084189658047</v>
+        <v>0.4197730602516003</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8162469586077847</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.532141295403392</v>
+        <v>3.178035171281635</v>
       </c>
       <c r="C3">
-        <v>0.8233329882695273</v>
+        <v>0.8788311530995827</v>
       </c>
       <c r="D3">
-        <v>0.04537707319376416</v>
+        <v>0.03582108916010363</v>
       </c>
       <c r="E3">
-        <v>0.03080870795416502</v>
+        <v>0.03083632999601216</v>
       </c>
       <c r="F3">
-        <v>1.802872399281426</v>
+        <v>1.515854865080854</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0007894477165244496</v>
+        <v>0.0004450504255235632</v>
       </c>
       <c r="I3">
-        <v>0.00114071961449369</v>
+        <v>0.0007807488593867262</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>1.019518951763466</v>
+        <v>0.8054892294813598</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3693542252576734</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2435730096627324</v>
       </c>
       <c r="N3">
-        <v>0.3588595749271093</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9533772540956029</v>
+        <v>0.3681920008452266</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8495155069896878</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.211514655864391</v>
+        <v>2.896359125008701</v>
       </c>
       <c r="C4">
-        <v>0.744862525478112</v>
+        <v>0.7939624960204412</v>
       </c>
       <c r="D4">
-        <v>0.04492045315115689</v>
+        <v>0.03576833690335679</v>
       </c>
       <c r="E4">
-        <v>0.02826807499747286</v>
+        <v>0.02852219755099261</v>
       </c>
       <c r="F4">
-        <v>1.683653020622046</v>
+        <v>1.423943750656974</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001661585065136917</v>
+        <v>0.001059371868448622</v>
       </c>
       <c r="I4">
-        <v>0.002109012416811495</v>
+        <v>0.001353592155275862</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.9700150404304111</v>
+        <v>0.7743835495042504</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3628552616436025</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2276020831943839</v>
       </c>
       <c r="N4">
-        <v>0.3274021727322491</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9707258944489929</v>
+        <v>0.3366190157317845</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8703750809866335</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.078405912150629</v>
+        <v>2.779182158052549</v>
       </c>
       <c r="C5">
-        <v>0.7134592766512924</v>
+        <v>0.7599565015451049</v>
       </c>
       <c r="D5">
-        <v>0.04466853066872645</v>
+        <v>0.03571033326967665</v>
       </c>
       <c r="E5">
-        <v>0.02723559818072907</v>
+        <v>0.02757956904327385</v>
       </c>
       <c r="F5">
-        <v>1.633422665919326</v>
+        <v>1.384997652180033</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.002121375142640547</v>
+        <v>0.00139432595841904</v>
       </c>
       <c r="I5">
-        <v>0.002709965776196199</v>
+        <v>0.001774882838673442</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.9485307332354722</v>
+        <v>0.7605881431965784</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3596266528556598</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2209722014130833</v>
       </c>
       <c r="N5">
-        <v>0.3146274033049679</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9772373659968601</v>
+        <v>0.3237883314032644</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.878645873784933</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.053276493058604</v>
+        <v>2.757020557836199</v>
       </c>
       <c r="C6">
-        <v>0.7087143926266322</v>
+        <v>0.7547690525688893</v>
       </c>
       <c r="D6">
-        <v>0.04455840546663659</v>
+        <v>0.03566599991011454</v>
       </c>
       <c r="E6">
-        <v>0.02705075343490915</v>
+        <v>0.02741150649612112</v>
       </c>
       <c r="F6">
-        <v>1.622761772833442</v>
+        <v>1.37653904660543</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.002208057699255805</v>
+        <v>0.00145805199965654</v>
       </c>
       <c r="I6">
-        <v>0.002918039108945614</v>
+        <v>0.001965852991006933</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.9432834090500819</v>
+        <v>0.7569271871600307</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3585024083451174</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2194378159056605</v>
       </c>
       <c r="N6">
-        <v>0.3125304670507347</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9775587079969839</v>
+        <v>0.3216800661760857</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8796214273271286</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.201415563948444</v>
+        <v>2.887402583212008</v>
       </c>
       <c r="C7">
-        <v>0.7456924482908107</v>
+        <v>0.7947270497179488</v>
       </c>
       <c r="D7">
-        <v>0.04473215367484151</v>
+        <v>0.03567554483963953</v>
       </c>
       <c r="E7">
-        <v>0.0282149621714245</v>
+        <v>0.02847624758445466</v>
       </c>
       <c r="F7">
-        <v>1.676582108559117</v>
+        <v>1.417953331420435</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.001677613111001452</v>
+        <v>0.001071027247229628</v>
       </c>
       <c r="I7">
-        <v>0.002372110466541955</v>
+        <v>0.00165198220939633</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.965117666612926</v>
+        <v>0.7704578880240476</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3612461601098218</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2262659370172102</v>
       </c>
       <c r="N7">
-        <v>0.3272923383508726</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9687399729930846</v>
+        <v>0.3365042703116643</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8694110681798648</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.863358986990136</v>
+        <v>3.468183388947921</v>
       </c>
       <c r="C8">
-        <v>0.9095112012876712</v>
+        <v>0.9718423548762587</v>
       </c>
       <c r="D8">
-        <v>0.04558500275722999</v>
+        <v>0.03573383001472674</v>
       </c>
       <c r="E8">
-        <v>0.03352501332431768</v>
+        <v>0.03330383204380416</v>
       </c>
       <c r="F8">
-        <v>1.922582510714548</v>
+        <v>1.607267974136008</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0002269328669459725</v>
+        <v>8.699031785774913E-05</v>
       </c>
       <c r="I8">
-        <v>0.000867139711585807</v>
+        <v>0.0008733804627674147</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>1.066484799852525</v>
+        <v>0.8337827870096035</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3739646995874821</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2597355457952233</v>
       </c>
       <c r="N8">
-        <v>0.392619006010392</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.932440359455871</v>
+        <v>0.4020407959183387</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8263307483580231</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.181712217717688</v>
+        <v>4.617271334819861</v>
       </c>
       <c r="C9">
-        <v>1.237428525595021</v>
+        <v>1.326212012286817</v>
       </c>
       <c r="D9">
-        <v>0.04725679054720189</v>
+        <v>0.03573119114551826</v>
       </c>
       <c r="E9">
-        <v>0.04474007635904087</v>
+        <v>0.04338051380489971</v>
       </c>
       <c r="F9">
-        <v>2.42830033515547</v>
+        <v>1.995430213299244</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.001095671215437521</v>
+        <v>0.001159460337081697</v>
       </c>
       <c r="I9">
-        <v>0.002383160048214705</v>
+        <v>0.002639875242955725</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.277032674935043</v>
+        <v>0.9655430030287988</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3983803313739287</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.336127350867244</v>
       </c>
       <c r="N9">
-        <v>0.5220647553430098</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8674979832507361</v>
+        <v>0.5315454078473607</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7472161249199161</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.111196371050539</v>
+        <v>5.424919877096613</v>
       </c>
       <c r="C10">
-        <v>1.487440076518965</v>
+        <v>1.594837455410016</v>
       </c>
       <c r="D10">
-        <v>0.0473027020536847</v>
+        <v>0.0352112844351371</v>
       </c>
       <c r="E10">
-        <v>0.05290545144033598</v>
+        <v>0.05080150480840562</v>
       </c>
       <c r="F10">
-        <v>2.773530406180242</v>
+        <v>2.258808208681046</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.004448357920316948</v>
+        <v>0.004139124416813189</v>
       </c>
       <c r="I10">
-        <v>0.00704943378997136</v>
+        <v>0.006693828102794619</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.410446971353309</v>
+        <v>1.045901914706278</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4081020427047477</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3909144696412454</v>
       </c>
       <c r="N10">
-        <v>0.5954897531423882</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8121476932570104</v>
+        <v>0.604477814454853</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6883619208416807</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.154185222411343</v>
+        <v>5.487305390017639</v>
       </c>
       <c r="C11">
-        <v>1.610804615477718</v>
+        <v>1.718674561523017</v>
       </c>
       <c r="D11">
-        <v>0.0406111615841791</v>
+        <v>0.03322610620643163</v>
       </c>
       <c r="E11">
-        <v>0.0561105911918478</v>
+        <v>0.0556716010089513</v>
       </c>
       <c r="F11">
-        <v>2.634822509340353</v>
+        <v>2.149904525095252</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02326570980591569</v>
+        <v>0.02287639068255487</v>
       </c>
       <c r="I11">
-        <v>0.008960889252317195</v>
+        <v>0.008517771567301047</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.275327565690731</v>
+        <v>0.9421382723386884</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3625885359341652</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3603850069745533</v>
       </c>
       <c r="N11">
-        <v>0.4432574554414828</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7218216676142717</v>
+        <v>0.4502765611943573</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6462564487394418</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.004156182205236</v>
+        <v>5.378291575362368</v>
       </c>
       <c r="C12">
-        <v>1.659719865494196</v>
+        <v>1.76380792208505</v>
       </c>
       <c r="D12">
-        <v>0.03684416869300566</v>
+        <v>0.03306156449709974</v>
       </c>
       <c r="E12">
-        <v>0.06499017974853061</v>
+        <v>0.06596472692899269</v>
       </c>
       <c r="F12">
-        <v>2.457146933331018</v>
+        <v>2.012313109379775</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0615929021083943</v>
+        <v>0.0612413875510498</v>
       </c>
       <c r="I12">
-        <v>0.009012580130227654</v>
+        <v>0.008607755896258951</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.145571019250951</v>
+        <v>0.8472405112298134</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3263262188661429</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3259474151810267</v>
       </c>
       <c r="N12">
-        <v>0.3198561396850863</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6754102058035212</v>
+        <v>0.325401376709209</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6361652390975596</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.684825879013374</v>
+        <v>5.120087298543012</v>
       </c>
       <c r="C13">
-        <v>1.655234938564092</v>
+        <v>1.752008311951272</v>
       </c>
       <c r="D13">
-        <v>0.03480484627268421</v>
+        <v>0.03407493784023075</v>
       </c>
       <c r="E13">
-        <v>0.07837572079942134</v>
+        <v>0.08062787816142425</v>
       </c>
       <c r="F13">
-        <v>2.229569472340259</v>
+        <v>1.836150900108194</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1165029204680366</v>
+        <v>0.1162740748761451</v>
       </c>
       <c r="I13">
-        <v>0.007898143370376864</v>
+        <v>0.007708140379297568</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>1.005676064452523</v>
+        <v>0.7479257472501715</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2922697193528379</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2848398012411408</v>
       </c>
       <c r="N13">
-        <v>0.2125492347716715</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6560617984280479</v>
+        <v>0.2168418586417147</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.6472204116492826</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.384556608756384</v>
+        <v>4.87121311015386</v>
       </c>
       <c r="C14">
-        <v>1.628425478548934</v>
+        <v>1.718462836407866</v>
       </c>
       <c r="D14">
-        <v>0.03435185871895463</v>
+        <v>0.03544781628758287</v>
       </c>
       <c r="E14">
-        <v>0.09068145793667881</v>
+        <v>0.09372228738360988</v>
       </c>
       <c r="F14">
-        <v>2.048131162260461</v>
+        <v>1.695346017453801</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.165121212208021</v>
+        <v>0.16499764152951</v>
       </c>
       <c r="I14">
-        <v>0.006768218052321195</v>
+        <v>0.006792639598276473</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.9037650323427684</v>
+        <v>0.6765698982918593</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2691387910924306</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2534883247574342</v>
       </c>
       <c r="N14">
-        <v>0.1483230354226848</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6563239039557676</v>
+        <v>0.1518204457103707</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.6655242574483395</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.273298130977764</v>
+        <v>4.77686382190916</v>
       </c>
       <c r="C15">
-        <v>1.611060493551236</v>
+        <v>1.69873440242003</v>
       </c>
       <c r="D15">
-        <v>0.0344004231645787</v>
+        <v>0.03588178881506821</v>
       </c>
       <c r="E15">
-        <v>0.09358306333591315</v>
+        <v>0.09679920781832863</v>
       </c>
       <c r="F15">
-        <v>1.991269442137664</v>
+        <v>1.651068960687596</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1773305045239084</v>
+        <v>0.1772450539349535</v>
       </c>
       <c r="I15">
-        <v>0.006384542219277201</v>
+        <v>0.00650924375602191</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.8749606005945481</v>
+        <v>0.6567631480223497</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2632382225266738</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2440612742768451</v>
       </c>
       <c r="N15">
-        <v>0.1336276644930905</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6600559901488179</v>
+        <v>0.1369618819846607</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.6730165449649022</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.94187021966178</v>
+        <v>4.483845676255214</v>
       </c>
       <c r="C16">
-        <v>1.503329335337753</v>
+        <v>1.584558018742086</v>
       </c>
       <c r="D16">
-        <v>0.03476619586674001</v>
+        <v>0.03567835296258437</v>
       </c>
       <c r="E16">
-        <v>0.08677087645742176</v>
+        <v>0.08993553889017392</v>
       </c>
       <c r="F16">
-        <v>1.88954675698804</v>
+        <v>1.572611421796609</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1633440030615532</v>
+        <v>0.1633715302399281</v>
       </c>
       <c r="I16">
-        <v>0.00460979982979115</v>
+        <v>0.004991402693772073</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.8465901893016721</v>
+        <v>0.6415571348888562</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2636393908921946</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2301199231795721</v>
       </c>
       <c r="N16">
-        <v>0.1281147926314787</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6849426502356017</v>
+        <v>0.1317421126225895</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.6916150336815825</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.845745589260105</v>
+        <v>4.390337754881728</v>
       </c>
       <c r="C17">
-        <v>1.435491621068877</v>
+        <v>1.515374286368569</v>
       </c>
       <c r="D17">
-        <v>0.03512916000766531</v>
+        <v>0.03472214024576203</v>
       </c>
       <c r="E17">
-        <v>0.07443724978916499</v>
+        <v>0.07717975496811391</v>
       </c>
       <c r="F17">
-        <v>1.906732401209823</v>
+        <v>1.586603081205979</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1250219831912744</v>
+        <v>0.1250773269751022</v>
       </c>
       <c r="I17">
-        <v>0.003905060048614573</v>
+        <v>0.004370432533812973</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.8777312588610897</v>
+        <v>0.6671318309012406</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2764269060606281</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2354848801227405</v>
       </c>
       <c r="N17">
-        <v>0.1553714339862253</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7029313395197496</v>
+        <v>0.1596739516174921</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.6960152124667651</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.946982251548036</v>
+        <v>4.46310970616463</v>
       </c>
       <c r="C18">
-        <v>1.392509365013268</v>
+        <v>1.47519873468201</v>
       </c>
       <c r="D18">
-        <v>0.03635310119555069</v>
+        <v>0.03359328166775555</v>
       </c>
       <c r="E18">
-        <v>0.05957937997525597</v>
+        <v>0.06146488751414658</v>
       </c>
       <c r="F18">
-        <v>2.034629687419638</v>
+        <v>1.686978455642645</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07213544326525323</v>
+        <v>0.07218818037398478</v>
       </c>
       <c r="I18">
-        <v>0.003565088247436066</v>
+        <v>0.003979723224643017</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.969845825576698</v>
+        <v>0.7355255533875109</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3034871580623815</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2593866934772393</v>
       </c>
       <c r="N18">
-        <v>0.2244541515934912</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7247785655713184</v>
+        <v>0.2299013227458175</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.69397572177939</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.186134679676115</v>
+        <v>4.651754128827918</v>
       </c>
       <c r="C19">
-        <v>1.375025163293117</v>
+        <v>1.46345300481488</v>
       </c>
       <c r="D19">
-        <v>0.03926165666305437</v>
+        <v>0.03334422973318674</v>
       </c>
       <c r="E19">
-        <v>0.04921219945040978</v>
+        <v>0.04982642099454448</v>
       </c>
       <c r="F19">
-        <v>2.236307214246708</v>
+        <v>1.843692288890011</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02730823325357079</v>
+        <v>0.02733620189707864</v>
       </c>
       <c r="I19">
-        <v>0.00402514204132931</v>
+        <v>0.004398948882412768</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>1.102759631448819</v>
+        <v>0.8316482876255691</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3394454058219409</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2957252256041158</v>
       </c>
       <c r="N19">
-        <v>0.338757657827415</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7579662368369533</v>
+        <v>0.3456931065571354</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6953747640940708</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.837706254073566</v>
+        <v>5.187568531587374</v>
       </c>
       <c r="C20">
-        <v>1.425149197744759</v>
+        <v>1.527542264539193</v>
       </c>
       <c r="D20">
-        <v>0.04671455073899722</v>
+        <v>0.03512072003545796</v>
       </c>
       <c r="E20">
-        <v>0.05052845288602437</v>
+        <v>0.04866673890905515</v>
       </c>
       <c r="F20">
-        <v>2.660321298666162</v>
+        <v>2.170931350937806</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.00330869440895043</v>
+        <v>0.003142814142285122</v>
       </c>
       <c r="I20">
-        <v>0.00620027891960806</v>
+        <v>0.006240051991027507</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>1.359674645691626</v>
+        <v>1.012515956362932</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4012135948430284</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3714037483202191</v>
       </c>
       <c r="N20">
-        <v>0.5753339554225221</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8203152865525212</v>
+        <v>0.5844641952158298</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7011543671761817</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.62503684357506</v>
+        <v>5.865057065992971</v>
       </c>
       <c r="C21">
-        <v>1.618478181292403</v>
+        <v>1.736533682664572</v>
       </c>
       <c r="D21">
-        <v>0.0481639038814663</v>
+        <v>0.03519820670333473</v>
       </c>
       <c r="E21">
-        <v>0.0582795110792973</v>
+        <v>0.05540297091606483</v>
       </c>
       <c r="F21">
-        <v>2.985505940024581</v>
+        <v>2.419380452202546</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006952439866584503</v>
+        <v>0.006260894499169112</v>
       </c>
       <c r="I21">
-        <v>0.01117169874511603</v>
+        <v>0.01034123701048451</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.501048591987029</v>
+        <v>1.101995679119142</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4180732351950809</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4259905940436397</v>
       </c>
       <c r="N21">
-        <v>0.6680812636138285</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7934201677933359</v>
+        <v>0.6770147423710569</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6621562595646662</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.132560471228373</v>
+        <v>6.301925560349275</v>
       </c>
       <c r="C22">
-        <v>1.745782012510233</v>
+        <v>1.873613988276929</v>
       </c>
       <c r="D22">
-        <v>0.0488632308783572</v>
+        <v>0.0351520687742779</v>
       </c>
       <c r="E22">
-        <v>0.06324184841351244</v>
+        <v>0.05976574092475873</v>
       </c>
       <c r="F22">
-        <v>3.192674826685419</v>
+        <v>2.577868728381475</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01001027976651425</v>
+        <v>0.008839580372903583</v>
       </c>
       <c r="I22">
-        <v>0.01500513435429163</v>
+        <v>0.01332214009248389</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.589331653452788</v>
+        <v>1.157699858297534</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.427516564243696</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4617050338220849</v>
       </c>
       <c r="N22">
-        <v>0.7173222899289442</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7743830408598029</v>
+        <v>0.7259156786326173</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6366620817953841</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.87179811580063</v>
+        <v>6.077734030479405</v>
       </c>
       <c r="C23">
-        <v>1.676109043803933</v>
+        <v>1.798757158578667</v>
       </c>
       <c r="D23">
-        <v>0.04870708034061266</v>
+        <v>0.03526373269629968</v>
       </c>
       <c r="E23">
-        <v>0.06062708660532401</v>
+        <v>0.05746460994985791</v>
       </c>
       <c r="F23">
-        <v>3.089585266219302</v>
+        <v>2.499581402520391</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.008336122759907472</v>
+        <v>0.007431228822736891</v>
       </c>
       <c r="I23">
-        <v>0.01264279521553924</v>
+        <v>0.01136628983440779</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.547669204671209</v>
+        <v>1.132280858514036</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4240358623744882</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4442857250816914</v>
       </c>
       <c r="N23">
-        <v>0.6909304831347356</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7866998150031392</v>
+        <v>0.6997145415389241</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6510397263104277</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.873830740761036</v>
+        <v>5.216806995454817</v>
       </c>
       <c r="C24">
-        <v>1.419225873594257</v>
+        <v>1.522117781131328</v>
       </c>
       <c r="D24">
-        <v>0.04770668699091374</v>
+        <v>0.03549135231457523</v>
       </c>
       <c r="E24">
-        <v>0.05107909899919338</v>
+        <v>0.04902778393399188</v>
       </c>
       <c r="F24">
-        <v>2.693304376224972</v>
+        <v>2.197208166862453</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.003312567930883414</v>
+        <v>0.003136005213820514</v>
       </c>
       <c r="I24">
-        <v>0.005826531593323914</v>
+        <v>0.005750518121453219</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>1.383449995342687</v>
+        <v>1.030347369867783</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4079324843616376</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3780910186137518</v>
       </c>
       <c r="N24">
-        <v>0.5920340129403314</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8310146008524057</v>
+        <v>0.6013345458906514</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.70546291030732</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.808585497623937</v>
+        <v>4.292824872998551</v>
       </c>
       <c r="C25">
-        <v>1.149817668099672</v>
+        <v>1.231371374826665</v>
       </c>
       <c r="D25">
-        <v>0.04651031220500457</v>
+        <v>0.03561728852895829</v>
       </c>
       <c r="E25">
-        <v>0.04152621317330496</v>
+        <v>0.04051216582388761</v>
       </c>
       <c r="F25">
-        <v>2.278157984838998</v>
+        <v>1.879504625628755</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0004057882620749353</v>
+        <v>0.0005018143252102369</v>
       </c>
       <c r="I25">
-        <v>0.00177149536314225</v>
+        <v>0.002180490045485151</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.211144939925248</v>
+        <v>0.9230087585794138</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3895608169687108</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3119906024774153</v>
       </c>
       <c r="N25">
-        <v>0.4869404464229063</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8812114584609816</v>
+        <v>0.4964514522722681</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7666471219716655</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
